--- a/Final Test Cases/IntermediateTestCases.xlsx
+++ b/Final Test Cases/IntermediateTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb91a9f572235a6e/Desktop/ML4NLU Documentation/Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9F36FC46-9E25-4B74-8C03-070F673D954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC3C5BB-FD9D-4CC8-B7E2-9FA37B3EEBA6}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{9F36FC46-9E25-4B74-8C03-070F673D954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5754F6C9-C734-4AE7-930A-920852002E0D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
   <si>
     <t>SrNo</t>
   </si>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">Write a python code to find the number of prime numbers between 2 and inputed number n, including n and 2 using most  efficient algorithm. Name the algorithm implemented. Time and compare with another algorithm. </t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/recursive-solution-count-substrings-first-last-characters/</t>
-  </si>
-  <si>
     <t>Write a python code to capitalize the first letter of all the words in the sentence using lambda functions.</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>BARD is not able to keep the U.S.A , it is giving U.s.a</t>
-  </si>
-  <si>
-    <t>Reference</t>
   </si>
   <si>
     <t>Write a python code to find recursive solution to count words with same first and last characters in a given sentence.</t>
@@ -277,12 +271,39 @@
   <si>
     <t>Write a java program to write  the number entered in words without using any inbuilt function.</t>
   </si>
+  <si>
+    <t>Question Reference</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>(14)</t>
+  </si>
+  <si>
+    <t>(15)</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>(16)</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>(11)</t>
+  </si>
+  <si>
+    <t>(17)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,14 +316,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -335,11 +348,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -347,13 +359,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -362,9 +371,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,6 +392,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -645,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,40 +681,40 @@
     <col min="6" max="6" width="9.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="10.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="26.21875" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.21875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -706,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -720,8 +742,11 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -735,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -749,8 +774,8 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
+      <c r="J3" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -778,8 +803,11 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -793,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -807,8 +835,11 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>22</v>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -836,8 +867,11 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>20</v>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -851,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -865,8 +899,11 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>24</v>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -880,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -894,8 +931,11 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>26</v>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -909,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -923,8 +963,11 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>29</v>
+      <c r="I9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -938,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -952,8 +995,11 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>26</v>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -967,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -981,8 +1027,11 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>26</v>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1010,6 +1059,9 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
+      <c r="J12" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -1022,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1036,8 +1088,11 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>37</v>
+      <c r="I13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="316.8" x14ac:dyDescent="0.3">
@@ -1051,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1065,8 +1120,11 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>36</v>
+      <c r="I14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1080,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1094,8 +1152,11 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>38</v>
+      <c r="I15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1109,7 +1170,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1123,11 +1184,14 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1138,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1152,11 +1216,14 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1167,7 +1234,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1181,11 +1248,14 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1196,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1210,11 +1280,14 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1225,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1239,11 +1312,14 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1254,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1268,11 +1344,14 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="I21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1280,10 +1359,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1297,8 +1376,11 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="J22" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1306,10 +1388,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1323,8 +1405,11 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="J23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1332,10 +1417,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1349,8 +1434,11 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="J24" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1358,11 +1446,11 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
@@ -1375,8 +1463,11 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="J25" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1384,10 +1475,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1401,8 +1492,11 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="J26" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1410,10 +1504,10 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1427,8 +1521,11 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J27" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1436,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1453,8 +1550,11 @@
       <c r="H28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J28" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1462,11 +1562,11 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
@@ -1479,8 +1579,11 @@
       <c r="H29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1488,10 +1591,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1505,8 +1608,11 @@
       <c r="H30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J30" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1514,10 +1620,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1531,30 +1637,30 @@
       <c r="H31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="5">
+      <c r="J31" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E32" s="4">
         <f>SUM(E2:E31)</f>
         <v>19</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" ref="F32:H32" si="0">SUM(F2:F31)</f>
         <v>11</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{BFA2251E-AA7C-42D9-A595-0EB9D0BF7280}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>